--- a/Workbook2.xlsx
+++ b/Workbook2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="21160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="21160" tabRatio="500" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sync Primitives on Counter" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="JVM Locking (No SYNC)" sheetId="11" r:id="rId5"/>
     <sheet name="Biased Locking (JVM)" sheetId="3" r:id="rId6"/>
     <sheet name="UnBiased Locking (JVM)" sheetId="7" r:id="rId7"/>
+    <sheet name="JUC" sheetId="12" r:id="rId8"/>
+    <sheet name="JUC (Warmup)" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
   <si>
     <t>Threads</t>
   </si>
@@ -95,6 +97,12 @@
   <si>
     <t>SYNC on READ</t>
   </si>
+  <si>
+    <t>JUC Locking</t>
+  </si>
+  <si>
+    <t>Warmup</t>
+  </si>
 </sst>
 </file>
 
@@ -158,8 +166,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -186,7 +196,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -196,6 +206,7 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -205,6 +216,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2154,6 +2166,2074 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="679686440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.102777961000948"/>
+          <c:y val="0.0436899850328626"/>
+          <c:w val="0.751554836895388"/>
+          <c:h val="0.896360502234518"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>JUC!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W1 (100% R)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>JUC!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>JUC!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7722989E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.456836E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.967535E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.746816E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.778765E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.001444E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.876229E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>JUC!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W2 (100% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>JUC!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>JUC!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.689597E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.201645E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.04055E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.771575E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.735518E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.89262E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.515454E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>JUC!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W3 (75% R, 25% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>JUC!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>JUC!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7226472E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.020077E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.673834E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.188141E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.965848E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.908157E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.991337E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>JUC!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W4 (75% W, 25% R)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>JUC!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>JUC!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.8144707E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>959326.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.702494E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.184165E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.878578E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.998924E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.883152E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>JUC!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W5 (50% R, 50% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>JUC!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>JUC!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.8106298E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>981371.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.591159E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.665686E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.900545E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.811551E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.844903E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="781558840"/>
+        <c:axId val="700976632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="781558840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="700976632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="700976632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="781558840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.102777961000948"/>
+          <c:y val="0.0436899850328626"/>
+          <c:w val="0.751554836895388"/>
+          <c:h val="0.896360502234518"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>JUC!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W1 (100% R)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>JUC!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>JUC!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7722989E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.456836E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.967535E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.746816E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.778765E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.001444E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.876229E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>JUC!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W2 (100% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>JUC!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>JUC!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.689597E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.201645E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.04055E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.771575E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.735518E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.89262E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.515454E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>JUC!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W3 (75% R, 25% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>JUC!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>JUC!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7226472E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.020077E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.673834E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.188141E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.965848E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.908157E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.991337E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>JUC!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W4 (75% W, 25% R)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>JUC!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>JUC!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.8144707E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>959326.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.702494E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.184165E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.878578E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.998924E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.883152E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>JUC!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W5 (50% R, 50% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>JUC!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>JUC!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.8106298E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>981371.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.591159E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.665686E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.900545E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.811551E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.844903E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="719881592"/>
+        <c:axId val="719881128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="719881592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="719881128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="719881128"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0E6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="719881592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.102777961000948"/>
+          <c:y val="0.0436899850328626"/>
+          <c:w val="0.751554836895388"/>
+          <c:h val="0.896360502234518"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC (Warmup)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W1 (100% R)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC (Warmup)'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC (Warmup)'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7840201E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.452352E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.714729E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.942973E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.111756E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.270784E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.852097E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC (Warmup)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W2 (100% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC (Warmup)'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC (Warmup)'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.6293478E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.900346E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.855148E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.962388E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.017424E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.098482E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.609583E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC (Warmup)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W3 (75% R, 25% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC (Warmup)'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC (Warmup)'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.6098966E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.086823E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.584775E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.323429E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.078382E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.989242E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.894497E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC (Warmup)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W4 (75% W, 25% R)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC (Warmup)'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC (Warmup)'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7718997E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.085397E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.792576E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.439856E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.900128E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.101172E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.843204E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC (Warmup)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W5 (50% R, 50% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC (Warmup)'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC (Warmup)'!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7741452E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>985973.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.363112E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.772365E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.029633E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.966032E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.778601E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="821364936"/>
+        <c:axId val="821368088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="821364936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821368088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="821368088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="821364936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.102777961000948"/>
+          <c:y val="0.0436899850328626"/>
+          <c:w val="0.751554836895388"/>
+          <c:h val="0.896360502234518"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC (Warmup)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W1 (100% R)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC (Warmup)'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC (Warmup)'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7840201E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.452352E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.714729E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.942973E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.111756E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.270784E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.852097E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC (Warmup)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W2 (100% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC (Warmup)'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC (Warmup)'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.6293478E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.900346E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.855148E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.962388E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.017424E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.098482E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.609583E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC (Warmup)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W3 (75% R, 25% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC (Warmup)'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC (Warmup)'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.6098966E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.086823E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.584775E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.323429E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.078382E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.989242E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.894497E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC (Warmup)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W4 (75% W, 25% R)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC (Warmup)'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC (Warmup)'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7718997E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.085397E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.792576E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.439856E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.900128E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.101172E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.843204E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC (Warmup)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W5 (50% R, 50% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC (Warmup)'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC (Warmup)'!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7741452E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>985973.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.363112E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.772365E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.029633E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.966032E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.778601E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="678061624"/>
+        <c:axId val="678063032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="678061624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678063032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="678063032"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0E6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="678061624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -6513,6 +8593,144 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2" title="Performance of System when Biased Locking is enabled (Log Scale)"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2" title="Performance of System when Biased Locking is enabled (Log Scale)"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6837,7 +9055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A56" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="X75" sqref="X75"/>
     </sheetView>
   </sheetViews>
@@ -6995,7 +9213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -7345,7 +9563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -7548,7 +9766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A45" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -7939,7 +10157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A53" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -8133,4 +10351,410 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X73"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>17722989</v>
+      </c>
+      <c r="C2" s="2">
+        <v>16895970</v>
+      </c>
+      <c r="D2" s="3">
+        <v>17226472</v>
+      </c>
+      <c r="E2" s="3">
+        <v>18144707</v>
+      </c>
+      <c r="F2" s="3">
+        <v>18106298</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2456836</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2201645</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1020077</v>
+      </c>
+      <c r="E3" s="3">
+        <v>959326</v>
+      </c>
+      <c r="F3" s="3">
+        <v>981371</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7967535</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8040550</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4673834</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4702494</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3591159</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7746816</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7771575</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2188141</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2184165</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3665686</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7778765</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7735518</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3965848</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3878578</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3900545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8001444</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7892620</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3908157</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3998924</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3811551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7876229</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7515454</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3991337</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3883152</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3844903</v>
+      </c>
+    </row>
+    <row r="73" spans="24:24">
+      <c r="X73" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>17840201</v>
+      </c>
+      <c r="C2" s="2">
+        <v>16293478</v>
+      </c>
+      <c r="D2" s="3">
+        <v>16098966</v>
+      </c>
+      <c r="E2" s="3">
+        <v>17718997</v>
+      </c>
+      <c r="F2" s="3">
+        <v>17741452</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2452352</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1900346</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1086823</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1085397</v>
+      </c>
+      <c r="F3" s="3">
+        <v>985973</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6714729</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7855148</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4584775</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4792576</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3363112</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7942973</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7962388</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2323429</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2439856</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3772365</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8111756</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8017424</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4078382</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3900128</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4029633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8270784</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8098482</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3989242</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4101172</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3966032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7852097</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7609583</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3894497</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3843204</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3778601</v>
+      </c>
+    </row>
+    <row r="73" spans="24:24">
+      <c r="X73" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Workbook2.xlsx
+++ b/Workbook2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="21160" tabRatio="500" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="21160" tabRatio="500" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sync Primitives on Counter" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,9 @@
     <sheet name="JVM Locking (No SYNC)" sheetId="11" r:id="rId5"/>
     <sheet name="Biased Locking (JVM)" sheetId="3" r:id="rId6"/>
     <sheet name="UnBiased Locking (JVM)" sheetId="7" r:id="rId7"/>
-    <sheet name="JUC" sheetId="12" r:id="rId8"/>
-    <sheet name="JUC (Warmup)" sheetId="13" r:id="rId9"/>
+    <sheet name="JUC - Reentrant" sheetId="12" r:id="rId8"/>
+    <sheet name="JUC - Reentrant (Warmup)" sheetId="13" r:id="rId9"/>
+    <sheet name="JUC - ReentrantRW" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="25">
   <si>
     <t>Threads</t>
   </si>
@@ -2238,7 +2239,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>JUC!$B$1</c:f>
+              <c:f>'JUC - Reentrant'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2252,7 +2253,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>JUC!$A$2:$A$8</c:f>
+              <c:f>'JUC - Reentrant'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2282,7 +2283,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JUC!$B$2:$B$8</c:f>
+              <c:f>'JUC - Reentrant'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2317,7 +2318,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>JUC!$C$1</c:f>
+              <c:f>'JUC - Reentrant'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2331,7 +2332,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>JUC!$A$2:$A$8</c:f>
+              <c:f>'JUC - Reentrant'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2361,7 +2362,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JUC!$C$2:$C$8</c:f>
+              <c:f>'JUC - Reentrant'!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2396,7 +2397,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>JUC!$D$1</c:f>
+              <c:f>'JUC - Reentrant'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2410,7 +2411,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>JUC!$A$2:$A$8</c:f>
+              <c:f>'JUC - Reentrant'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2440,7 +2441,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JUC!$D$2:$D$8</c:f>
+              <c:f>'JUC - Reentrant'!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2475,7 +2476,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>JUC!$E$1</c:f>
+              <c:f>'JUC - Reentrant'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2489,7 +2490,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>JUC!$A$2:$A$8</c:f>
+              <c:f>'JUC - Reentrant'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2519,7 +2520,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JUC!$E$2:$E$8</c:f>
+              <c:f>'JUC - Reentrant'!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2554,7 +2555,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>JUC!$F$1</c:f>
+              <c:f>'JUC - Reentrant'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2568,7 +2569,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>JUC!$A$2:$A$8</c:f>
+              <c:f>'JUC - Reentrant'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2598,7 +2599,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JUC!$F$2:$F$8</c:f>
+              <c:f>'JUC - Reentrant'!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2754,7 +2755,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>JUC!$B$1</c:f>
+              <c:f>'JUC - Reentrant'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2768,7 +2769,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>JUC!$A$2:$A$8</c:f>
+              <c:f>'JUC - Reentrant'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2798,7 +2799,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JUC!$B$2:$B$8</c:f>
+              <c:f>'JUC - Reentrant'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2833,7 +2834,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>JUC!$C$1</c:f>
+              <c:f>'JUC - Reentrant'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2847,7 +2848,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>JUC!$A$2:$A$8</c:f>
+              <c:f>'JUC - Reentrant'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2877,7 +2878,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JUC!$C$2:$C$8</c:f>
+              <c:f>'JUC - Reentrant'!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2912,7 +2913,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>JUC!$D$1</c:f>
+              <c:f>'JUC - Reentrant'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2926,7 +2927,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>JUC!$A$2:$A$8</c:f>
+              <c:f>'JUC - Reentrant'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2956,7 +2957,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JUC!$D$2:$D$8</c:f>
+              <c:f>'JUC - Reentrant'!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2991,7 +2992,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>JUC!$E$1</c:f>
+              <c:f>'JUC - Reentrant'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3005,7 +3006,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>JUC!$A$2:$A$8</c:f>
+              <c:f>'JUC - Reentrant'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3035,7 +3036,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JUC!$E$2:$E$8</c:f>
+              <c:f>'JUC - Reentrant'!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3070,7 +3071,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>JUC!$F$1</c:f>
+              <c:f>'JUC - Reentrant'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3084,7 +3085,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>JUC!$A$2:$A$8</c:f>
+              <c:f>'JUC - Reentrant'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3114,7 +3115,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JUC!$F$2:$F$8</c:f>
+              <c:f>'JUC - Reentrant'!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3272,7 +3273,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'JUC (Warmup)'!$B$1</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3286,7 +3287,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'JUC (Warmup)'!$A$2:$A$8</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3316,7 +3317,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'JUC (Warmup)'!$B$2:$B$8</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3351,7 +3352,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'JUC (Warmup)'!$C$1</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3365,7 +3366,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'JUC (Warmup)'!$A$2:$A$8</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3395,7 +3396,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'JUC (Warmup)'!$C$2:$C$8</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3430,7 +3431,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'JUC (Warmup)'!$D$1</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3444,7 +3445,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'JUC (Warmup)'!$A$2:$A$8</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3474,7 +3475,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'JUC (Warmup)'!$D$2:$D$8</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3509,7 +3510,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'JUC (Warmup)'!$E$1</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3523,7 +3524,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'JUC (Warmup)'!$A$2:$A$8</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3553,7 +3554,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'JUC (Warmup)'!$E$2:$E$8</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3588,7 +3589,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'JUC (Warmup)'!$F$1</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3602,7 +3603,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'JUC (Warmup)'!$A$2:$A$8</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3632,7 +3633,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'JUC (Warmup)'!$F$2:$F$8</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3788,7 +3789,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'JUC (Warmup)'!$B$1</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3802,7 +3803,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'JUC (Warmup)'!$A$2:$A$8</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3832,7 +3833,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'JUC (Warmup)'!$B$2:$B$8</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3867,7 +3868,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'JUC (Warmup)'!$C$1</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3881,7 +3882,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'JUC (Warmup)'!$A$2:$A$8</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3911,7 +3912,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'JUC (Warmup)'!$C$2:$C$8</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3946,7 +3947,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'JUC (Warmup)'!$D$1</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3960,7 +3961,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'JUC (Warmup)'!$A$2:$A$8</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3990,7 +3991,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'JUC (Warmup)'!$D$2:$D$8</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4025,7 +4026,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'JUC (Warmup)'!$E$1</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4039,7 +4040,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'JUC (Warmup)'!$A$2:$A$8</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4069,7 +4070,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'JUC (Warmup)'!$E$2:$E$8</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4104,7 +4105,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'JUC (Warmup)'!$F$1</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4118,7 +4119,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'JUC (Warmup)'!$A$2:$A$8</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4148,7 +4149,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'JUC (Warmup)'!$F$2:$F$8</c:f>
+              <c:f>'JUC - Reentrant (Warmup)'!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4234,6 +4235,1040 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="678061624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.102777961000948"/>
+          <c:y val="0.0436899850328626"/>
+          <c:w val="0.751554836895388"/>
+          <c:h val="0.896360502234518"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - ReentrantRW'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W1 (100% R)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7169053E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.632446E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.294927E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>981485.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.140456E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>878312.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>431569.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - ReentrantRW'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W2 (100% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.6937371E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.307236E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.763037E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.418286E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.502043E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.787801E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.298246E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - ReentrantRW'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W3 (75% R, 25% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.6952126E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.536799E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.198435E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.470393E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.266718E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>965483.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.141846E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - ReentrantRW'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W4 (75% W, 25% R)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7071401E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.411132E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.405663E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.532608E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.040168E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>901715.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>863763.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - ReentrantRW'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W5 (50% R, 50% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7678942E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.460828E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.718534E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.160542E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.114637E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.016521E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>975265.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="670318312"/>
+        <c:axId val="670321464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="670318312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="670321464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="670321464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="670318312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.102777961000948"/>
+          <c:y val="0.0436899850328626"/>
+          <c:w val="0.751554836895388"/>
+          <c:h val="0.896360502234518"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - ReentrantRW'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W1 (100% R)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7169053E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.632446E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.294927E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>981485.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.140456E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>878312.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>431569.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - ReentrantRW'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W2 (100% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.6937371E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.307236E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.763037E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.418286E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.502043E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.787801E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.298246E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - ReentrantRW'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W3 (75% R, 25% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.6952126E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.536799E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.198435E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.470393E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.266718E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>965483.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.141846E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - ReentrantRW'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W4 (75% W, 25% R)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7071401E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.411132E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.405663E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.532608E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.040168E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>901715.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>863763.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - ReentrantRW'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W5 (50% R, 50% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7678942E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.460828E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.718534E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.160542E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.114637E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.016521E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>975265.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="670430824"/>
+        <c:axId val="670433976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="670430824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="670433976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="670433976"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100000.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="670430824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -8224,6 +9259,75 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2" title="Performance of System when Biased Locking is enabled (Log Scale)"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9209,6 +10313,209 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X73"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>17169053</v>
+      </c>
+      <c r="C2" s="2">
+        <v>16937371</v>
+      </c>
+      <c r="D2" s="3">
+        <v>16952126</v>
+      </c>
+      <c r="E2" s="3">
+        <v>17071401</v>
+      </c>
+      <c r="F2" s="3">
+        <v>17678942</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1632446</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2307236</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1536799</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1411132</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1460828</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1294927</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7763037</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2198435</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4405663</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1718534</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>981485</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7418286</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1470393</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1532608</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1160542</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1140456</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7502043</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1266718</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1040168</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1114637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2">
+        <v>878312</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7787801</v>
+      </c>
+      <c r="D7" s="2">
+        <v>965483</v>
+      </c>
+      <c r="E7" s="2">
+        <v>901715</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1016521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2">
+        <v>431569</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7298246</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1141846</v>
+      </c>
+      <c r="E8" s="2">
+        <v>863763</v>
+      </c>
+      <c r="F8" s="2">
+        <v>975265</v>
+      </c>
+    </row>
+    <row r="73" spans="24:24">
+      <c r="X73" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
@@ -10357,7 +11664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>

--- a/Workbook2.xlsx
+++ b/Workbook2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="21160" tabRatio="500" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sync Primitives on Counter" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="30">
   <si>
     <t>Threads</t>
   </si>
@@ -103,6 +103,21 @@
   </si>
   <si>
     <t>Warmup</t>
+  </si>
+  <si>
+    <t>WHY?</t>
+  </si>
+  <si>
+    <t>Baseline Performance without any synchronization</t>
+  </si>
+  <si>
+    <t>Memory Benchmarking on this ?</t>
+  </si>
+  <si>
+    <t>Explaination, as to why this behaviour is happening</t>
+  </si>
+  <si>
+    <t>NO SYNC on READ</t>
   </si>
 </sst>
 </file>
@@ -10159,7 +10174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A44" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="X75" sqref="X75"/>
     </sheetView>
   </sheetViews>
@@ -10317,7 +10332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A46" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
@@ -10518,10 +10533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10667,6 +10682,11 @@
       </c>
       <c r="E8" s="2">
         <v>914360953</v>
+      </c>
+    </row>
+    <row r="24" spans="16:16">
+      <c r="P24" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -10685,8 +10705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView showRuler="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10728,6 +10748,9 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
@@ -10870,8 +10893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11050,6 +11073,14 @@
       </c>
       <c r="F8" s="2">
         <v>1470556</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="J9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="24:24">
@@ -11073,8 +11104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11134,7 +11165,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11867,7 +11898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>

--- a/Workbook2.xlsx
+++ b/Workbook2.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="21160" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sync Primitives on Counter" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Default" sheetId="5" r:id="rId3"/>
-    <sheet name="JVM Locking (SYNC)" sheetId="9" r:id="rId4"/>
-    <sheet name="JVM Locking (No SYNC)" sheetId="11" r:id="rId5"/>
-    <sheet name="Biased Locking (JVM)" sheetId="3" r:id="rId6"/>
-    <sheet name="UnBiased Locking (JVM)" sheetId="7" r:id="rId7"/>
-    <sheet name="JUC - Reentrant" sheetId="12" r:id="rId8"/>
-    <sheet name="JUC - Reentrant (Warmup)" sheetId="13" r:id="rId9"/>
-    <sheet name="JUC - ReentrantRW" sheetId="14" r:id="rId10"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId3"/>
+    <sheet name="Default" sheetId="5" r:id="rId4"/>
+    <sheet name="JVM Locking (SYNC)" sheetId="9" r:id="rId5"/>
+    <sheet name="JVM Locking (No SYNC)" sheetId="11" r:id="rId6"/>
+    <sheet name="Biased Locking (JVM)" sheetId="3" r:id="rId7"/>
+    <sheet name="UnBiased Locking (JVM)" sheetId="7" r:id="rId8"/>
+    <sheet name="JUC - Reentrant" sheetId="12" r:id="rId9"/>
+    <sheet name="JUC - Reentrant (Warmup)" sheetId="13" r:id="rId10"/>
+    <sheet name="JUC - ReentrantRW" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
   <si>
     <t>Threads</t>
   </si>
@@ -119,6 +120,48 @@
   <si>
     <t>NO SYNC on READ</t>
   </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>NOR(Warmup)</t>
+  </si>
+  <si>
+    <t>VOL</t>
+  </si>
+  <si>
+    <t>VOLI (Warmup)</t>
+  </si>
+  <si>
+    <t>ATO</t>
+  </si>
+  <si>
+    <t>ATO (Warmup)</t>
+  </si>
+  <si>
+    <t>JVM</t>
+  </si>
+  <si>
+    <t>JVM (Warmup)</t>
+  </si>
+  <si>
+    <t>JVM (Warmup+Biased)</t>
+  </si>
+  <si>
+    <t>JVM (-Biased)</t>
+  </si>
+  <si>
+    <t>JVM (+Biased)</t>
+  </si>
+  <si>
+    <t>JVM (Warmup-Biased)</t>
+  </si>
+  <si>
+    <t>JUC</t>
+  </si>
+  <si>
+    <t>JUC (Warmup)</t>
+  </si>
 </sst>
 </file>
 
@@ -182,8 +225,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -212,7 +257,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -223,6 +268,7 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -233,6 +279,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5729,6 +5776,21 @@
           <c:builtInUnit val="millions"/>
           <c:dispUnitsLbl>
             <c:layout/>
+            <c:tx>
+              <c:rich>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600"/>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1600"/>
+                    <a:t>Millions ops/sec</a:t>
+                  </a:r>
+                </a:p>
+              </c:rich>
+            </c:tx>
           </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
@@ -5737,6 +5799,16 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -9266,8 +9338,8 @@
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -10174,8 +10246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="X75" sqref="X75"/>
+    <sheetView showRuler="0" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="V79" sqref="V79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10332,7 +10404,210 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>17840201</v>
+      </c>
+      <c r="C2" s="2">
+        <v>16293478</v>
+      </c>
+      <c r="D2" s="3">
+        <v>16098966</v>
+      </c>
+      <c r="E2" s="3">
+        <v>17718997</v>
+      </c>
+      <c r="F2" s="3">
+        <v>17741452</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2452352</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1900346</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1086823</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1085397</v>
+      </c>
+      <c r="F3" s="3">
+        <v>985973</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6714729</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7855148</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4584775</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4792576</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3363112</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7942973</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7962388</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2323429</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2439856</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3772365</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8111756</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8017424</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4078382</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3900128</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4029633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8270784</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8098482</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3989242</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4101172</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3966032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7852097</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7609583</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3894497</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3843204</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3778601</v>
+      </c>
+    </row>
+    <row r="73" spans="24:24">
+      <c r="X73" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X73"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A51" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
@@ -10535,7 +10810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
@@ -10703,10 +10978,129 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>516866383</v>
+      </c>
+      <c r="C2" s="2">
+        <v>580879311</v>
+      </c>
+      <c r="D2" s="2">
+        <v>36364547</v>
+      </c>
+      <c r="E2" s="2">
+        <v>32720340</v>
+      </c>
+      <c r="F2" s="2">
+        <v>38507808</v>
+      </c>
+      <c r="G2" s="2">
+        <v>38314857</v>
+      </c>
+      <c r="H2" s="2">
+        <v>18256106</v>
+      </c>
+      <c r="I2" s="2">
+        <v>17337213</v>
+      </c>
+      <c r="J2" s="2">
+        <v>167927071</v>
+      </c>
+      <c r="K2" s="2">
+        <v>177511904</v>
+      </c>
+      <c r="L2" s="2">
+        <v>17326000</v>
+      </c>
+      <c r="M2" s="2">
+        <v>17346098</v>
+      </c>
+      <c r="N2" s="2">
+        <v>18019544</v>
+      </c>
+      <c r="O2" s="2">
+        <v>18058368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10875,217 +11269,6 @@
       </c>
       <c r="F8" s="2">
         <v>802517980</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X73"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>36276612</v>
-      </c>
-      <c r="C2" s="2">
-        <v>16673330</v>
-      </c>
-      <c r="D2" s="3">
-        <v>16662820</v>
-      </c>
-      <c r="E2" s="3">
-        <v>36284588</v>
-      </c>
-      <c r="F2" s="3">
-        <v>36281468</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>6498285</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2776438</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3047693</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3193028</v>
-      </c>
-      <c r="F3" s="3">
-        <v>3290259</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4983128</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2433602</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3792090</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2016021</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2025763</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3289576</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1571625</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1892313</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1372928</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1390491</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4226632</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2046853</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1360551</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1466572</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1181521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>32</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3495831</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2059800</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1351433</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1426251</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1308645</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>64</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3975478</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2218561</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1143148</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1166049</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1470556</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="J9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="24:24">
-      <c r="X73" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -11104,8 +11287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J8"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11144,9 +11327,15 @@
       <c r="C2" s="2">
         <v>16673330</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="3">
+        <v>16662820</v>
+      </c>
+      <c r="E2" s="3">
+        <v>36284588</v>
+      </c>
+      <c r="F2" s="3">
+        <v>36281468</v>
+      </c>
       <c r="J2" t="s">
         <v>21</v>
       </c>
@@ -11161,11 +11350,17 @@
       <c r="C3" s="2">
         <v>2776438</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="3">
+        <v>3047693</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3193028</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3290259</v>
+      </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11178,14 +11373,14 @@
       <c r="C4" s="2">
         <v>2433602</v>
       </c>
-      <c r="D4" s="3">
-        <v>16594053</v>
+      <c r="D4" s="2">
+        <v>3792090</v>
       </c>
       <c r="E4" s="2">
-        <v>3851340</v>
+        <v>2016021</v>
       </c>
       <c r="F4" s="2">
-        <v>5028674</v>
+        <v>2025763</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -11202,13 +11397,13 @@
         <v>1571625</v>
       </c>
       <c r="D5" s="2">
-        <v>8847039</v>
+        <v>1892313</v>
       </c>
       <c r="E5" s="2">
-        <v>2020454</v>
+        <v>1372928</v>
       </c>
       <c r="F5" s="2">
-        <v>2605863</v>
+        <v>1390491</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>10</v>
@@ -11225,13 +11420,13 @@
         <v>2046853</v>
       </c>
       <c r="D6" s="2">
-        <v>2426389</v>
+        <v>1360551</v>
       </c>
       <c r="E6" s="2">
-        <v>2088244</v>
+        <v>1466572</v>
       </c>
       <c r="F6" s="2">
-        <v>1609687</v>
+        <v>1181521</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11245,13 +11440,13 @@
         <v>2059800</v>
       </c>
       <c r="D7" s="2">
-        <v>1610284</v>
+        <v>1351433</v>
       </c>
       <c r="E7" s="2">
-        <v>2056465</v>
+        <v>1426251</v>
       </c>
       <c r="F7" s="2">
-        <v>1818619</v>
+        <v>1308645</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11265,13 +11460,21 @@
         <v>2218561</v>
       </c>
       <c r="D8" s="2">
-        <v>2080340</v>
+        <v>1143148</v>
       </c>
       <c r="E8" s="2">
-        <v>1757275</v>
+        <v>1166049</v>
       </c>
       <c r="F8" s="2">
-        <v>1991281</v>
+        <v>1470556</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="J9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="24:24">
@@ -11296,7 +11499,7 @@
   <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F3"/>
+      <selection activeCell="J7" sqref="J7:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11330,19 +11533,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>241043428</v>
+        <v>36276612</v>
       </c>
       <c r="C2" s="2">
-        <v>79440106</v>
-      </c>
-      <c r="D2" s="3">
-        <v>79257013</v>
-      </c>
-      <c r="E2" s="3">
-        <v>387137735</v>
-      </c>
-      <c r="F2" s="3">
-        <v>386188359</v>
+        <v>16673330</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="J2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11350,22 +11550,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>7812128</v>
+        <v>6498285</v>
       </c>
       <c r="C3" s="2">
-        <v>2993079</v>
-      </c>
-      <c r="D3" s="3">
-        <v>78828979</v>
-      </c>
-      <c r="E3" s="3">
-        <v>78848683</v>
-      </c>
-      <c r="F3" s="3">
-        <v>78417780</v>
-      </c>
+        <v>2776438</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11373,19 +11567,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>5152392</v>
+        <v>4983128</v>
       </c>
       <c r="C4" s="2">
-        <v>2299309</v>
-      </c>
-      <c r="D4" s="2">
-        <v>78504088</v>
+        <v>2433602</v>
+      </c>
+      <c r="D4" s="3">
+        <v>16594053</v>
       </c>
       <c r="E4" s="2">
-        <v>2955888</v>
+        <v>3851340</v>
       </c>
       <c r="F4" s="2">
-        <v>4728841</v>
+        <v>5028674</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -11396,19 +11590,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>4167498</v>
+        <v>3289576</v>
       </c>
       <c r="C5" s="2">
-        <v>1979681</v>
+        <v>1571625</v>
       </c>
       <c r="D5" s="2">
-        <v>2666295</v>
+        <v>8847039</v>
       </c>
       <c r="E5" s="2">
-        <v>2168983</v>
+        <v>2020454</v>
       </c>
       <c r="F5" s="2">
-        <v>2587843</v>
+        <v>2605863</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>10</v>
@@ -11419,19 +11613,19 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>4317797</v>
+        <v>4226632</v>
       </c>
       <c r="C6" s="2">
-        <v>1903383</v>
+        <v>2046853</v>
       </c>
       <c r="D6" s="2">
-        <v>2353238</v>
+        <v>2426389</v>
       </c>
       <c r="E6" s="2">
-        <v>1983030</v>
+        <v>2088244</v>
       </c>
       <c r="F6" s="2">
-        <v>1519111</v>
+        <v>1609687</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11439,19 +11633,19 @@
         <v>32</v>
       </c>
       <c r="B7" s="2">
-        <v>3251664</v>
+        <v>3495831</v>
       </c>
       <c r="C7" s="2">
-        <v>2221538</v>
+        <v>2059800</v>
       </c>
       <c r="D7" s="2">
-        <v>1641257</v>
+        <v>1610284</v>
       </c>
       <c r="E7" s="2">
-        <v>1622263</v>
+        <v>2056465</v>
       </c>
       <c r="F7" s="2">
-        <v>2236253</v>
+        <v>1818619</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11459,19 +11653,19 @@
         <v>64</v>
       </c>
       <c r="B8" s="2">
-        <v>4519230</v>
+        <v>3975478</v>
       </c>
       <c r="C8" s="2">
-        <v>1683592</v>
+        <v>2218561</v>
       </c>
       <c r="D8" s="2">
-        <v>1666961</v>
+        <v>2080340</v>
       </c>
       <c r="E8" s="2">
-        <v>1680418</v>
+        <v>1757275</v>
       </c>
       <c r="F8" s="2">
-        <v>1688269</v>
+        <v>1991281</v>
       </c>
     </row>
     <row r="73" spans="24:24">
@@ -11495,8 +11689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11530,19 +11724,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>35458717</v>
+        <v>241043428</v>
       </c>
       <c r="C2" s="2">
-        <v>16644141</v>
+        <v>79440106</v>
       </c>
       <c r="D2" s="3">
-        <v>16627420</v>
+        <v>79257013</v>
       </c>
       <c r="E2" s="3">
-        <v>384571011</v>
+        <v>387137735</v>
       </c>
       <c r="F2" s="3">
-        <v>384468990</v>
+        <v>386188359</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11550,22 +11744,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>9456827</v>
+        <v>7812128</v>
       </c>
       <c r="C3" s="2">
-        <v>2600335</v>
+        <v>2993079</v>
       </c>
       <c r="D3" s="3">
-        <v>16551432</v>
+        <v>78828979</v>
       </c>
       <c r="E3" s="3">
-        <v>16713120</v>
+        <v>78848683</v>
       </c>
       <c r="F3" s="3">
-        <v>16732422</v>
+        <v>78417780</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11573,19 +11767,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>4711712</v>
+        <v>5152392</v>
       </c>
       <c r="C4" s="2">
-        <v>2336002</v>
+        <v>2299309</v>
       </c>
       <c r="D4" s="2">
-        <v>17338567</v>
+        <v>78504088</v>
       </c>
       <c r="E4" s="2">
-        <v>2861807</v>
+        <v>2955888</v>
       </c>
       <c r="F4" s="2">
-        <v>3943615</v>
+        <v>4728841</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -11596,19 +11790,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>3052626</v>
+        <v>4167498</v>
       </c>
       <c r="C5" s="2">
-        <v>2122776</v>
+        <v>1979681</v>
       </c>
       <c r="D5" s="2">
-        <v>2463524</v>
+        <v>2666295</v>
       </c>
       <c r="E5" s="2">
-        <v>2196655</v>
+        <v>2168983</v>
       </c>
       <c r="F5" s="2">
-        <v>2594176</v>
+        <v>2587843</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>10</v>
@@ -11619,19 +11813,19 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>3059555</v>
+        <v>4317797</v>
       </c>
       <c r="C6" s="2">
-        <v>2044132</v>
+        <v>1903383</v>
       </c>
       <c r="D6" s="2">
-        <v>1929046</v>
+        <v>2353238</v>
       </c>
       <c r="E6" s="2">
-        <v>1610695</v>
+        <v>1983030</v>
       </c>
       <c r="F6" s="2">
-        <v>2088208</v>
+        <v>1519111</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11639,19 +11833,19 @@
         <v>32</v>
       </c>
       <c r="B7" s="2">
-        <v>3323562</v>
+        <v>3251664</v>
       </c>
       <c r="C7" s="2">
-        <v>2121326</v>
+        <v>2221538</v>
       </c>
       <c r="D7" s="2">
-        <v>1675767</v>
+        <v>1641257</v>
       </c>
       <c r="E7" s="2">
-        <v>2013079</v>
+        <v>1622263</v>
       </c>
       <c r="F7" s="2">
-        <v>2040905</v>
+        <v>2236253</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11659,19 +11853,19 @@
         <v>64</v>
       </c>
       <c r="B8" s="2">
-        <v>4050201</v>
+        <v>4519230</v>
       </c>
       <c r="C8" s="2">
-        <v>1687776</v>
+        <v>1683592</v>
       </c>
       <c r="D8" s="2">
-        <v>1584354</v>
+        <v>1666961</v>
       </c>
       <c r="E8" s="2">
-        <v>1580045</v>
+        <v>1680418</v>
       </c>
       <c r="F8" s="2">
-        <v>1601975</v>
+        <v>1688269</v>
       </c>
     </row>
     <row r="73" spans="24:24">
@@ -11695,8 +11889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11730,22 +11924,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>17722989</v>
+        <v>35458717</v>
       </c>
       <c r="C2" s="2">
-        <v>16895970</v>
+        <v>16644141</v>
       </c>
       <c r="D2" s="3">
-        <v>17226472</v>
+        <v>16627420</v>
       </c>
       <c r="E2" s="3">
-        <v>18144707</v>
+        <v>384571011</v>
       </c>
       <c r="F2" s="3">
-        <v>18106298</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
+        <v>384468990</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11753,22 +11944,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>2456836</v>
+        <v>9456827</v>
       </c>
       <c r="C3" s="2">
-        <v>2201645</v>
+        <v>2600335</v>
       </c>
       <c r="D3" s="3">
-        <v>1020077</v>
+        <v>16551432</v>
       </c>
       <c r="E3" s="3">
-        <v>959326</v>
+        <v>16713120</v>
       </c>
       <c r="F3" s="3">
-        <v>981371</v>
+        <v>16732422</v>
       </c>
       <c r="J3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11776,19 +11967,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>7967535</v>
+        <v>4711712</v>
       </c>
       <c r="C4" s="2">
-        <v>8040550</v>
+        <v>2336002</v>
       </c>
       <c r="D4" s="2">
-        <v>4673834</v>
+        <v>17338567</v>
       </c>
       <c r="E4" s="2">
-        <v>4702494</v>
+        <v>2861807</v>
       </c>
       <c r="F4" s="2">
-        <v>3591159</v>
+        <v>3943615</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -11799,19 +11990,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>7746816</v>
+        <v>3052626</v>
       </c>
       <c r="C5" s="2">
-        <v>7771575</v>
+        <v>2122776</v>
       </c>
       <c r="D5" s="2">
-        <v>2188141</v>
+        <v>2463524</v>
       </c>
       <c r="E5" s="2">
-        <v>2184165</v>
+        <v>2196655</v>
       </c>
       <c r="F5" s="2">
-        <v>3665686</v>
+        <v>2594176</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>10</v>
@@ -11822,19 +12013,19 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>7778765</v>
+        <v>3059555</v>
       </c>
       <c r="C6" s="2">
-        <v>7735518</v>
+        <v>2044132</v>
       </c>
       <c r="D6" s="2">
-        <v>3965848</v>
+        <v>1929046</v>
       </c>
       <c r="E6" s="2">
-        <v>3878578</v>
+        <v>1610695</v>
       </c>
       <c r="F6" s="2">
-        <v>3900545</v>
+        <v>2088208</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11842,19 +12033,19 @@
         <v>32</v>
       </c>
       <c r="B7" s="2">
-        <v>8001444</v>
+        <v>3323562</v>
       </c>
       <c r="C7" s="2">
-        <v>7892620</v>
+        <v>2121326</v>
       </c>
       <c r="D7" s="2">
-        <v>3908157</v>
+        <v>1675767</v>
       </c>
       <c r="E7" s="2">
-        <v>3998924</v>
+        <v>2013079</v>
       </c>
       <c r="F7" s="2">
-        <v>3811551</v>
+        <v>2040905</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11862,19 +12053,19 @@
         <v>64</v>
       </c>
       <c r="B8" s="2">
-        <v>7876229</v>
+        <v>4050201</v>
       </c>
       <c r="C8" s="2">
-        <v>7515454</v>
+        <v>1687776</v>
       </c>
       <c r="D8" s="2">
-        <v>3991337</v>
+        <v>1584354</v>
       </c>
       <c r="E8" s="2">
-        <v>3883152</v>
+        <v>1580045</v>
       </c>
       <c r="F8" s="2">
-        <v>3844903</v>
+        <v>1601975</v>
       </c>
     </row>
     <row r="73" spans="24:24">
@@ -11899,7 +12090,7 @@
   <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11933,19 +12124,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>17840201</v>
+        <v>17722989</v>
       </c>
       <c r="C2" s="2">
-        <v>16293478</v>
+        <v>16895970</v>
       </c>
       <c r="D2" s="3">
-        <v>16098966</v>
+        <v>17226472</v>
       </c>
       <c r="E2" s="3">
-        <v>17718997</v>
+        <v>18144707</v>
       </c>
       <c r="F2" s="3">
-        <v>17741452</v>
+        <v>18106298</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
@@ -11956,19 +12147,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>2452352</v>
+        <v>2456836</v>
       </c>
       <c r="C3" s="2">
-        <v>1900346</v>
+        <v>2201645</v>
       </c>
       <c r="D3" s="3">
-        <v>1086823</v>
+        <v>1020077</v>
       </c>
       <c r="E3" s="3">
-        <v>1085397</v>
+        <v>959326</v>
       </c>
       <c r="F3" s="3">
-        <v>985973</v>
+        <v>981371</v>
       </c>
       <c r="J3" t="s">
         <v>4</v>
@@ -11979,22 +12170,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>6714729</v>
+        <v>7967535</v>
       </c>
       <c r="C4" s="2">
-        <v>7855148</v>
+        <v>8040550</v>
       </c>
       <c r="D4" s="2">
-        <v>4584775</v>
+        <v>4673834</v>
       </c>
       <c r="E4" s="2">
-        <v>4792576</v>
+        <v>4702494</v>
       </c>
       <c r="F4" s="2">
-        <v>3363112</v>
+        <v>3591159</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12002,19 +12193,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>7942973</v>
+        <v>7746816</v>
       </c>
       <c r="C5" s="2">
-        <v>7962388</v>
+        <v>7771575</v>
       </c>
       <c r="D5" s="2">
-        <v>2323429</v>
+        <v>2188141</v>
       </c>
       <c r="E5" s="2">
-        <v>2439856</v>
+        <v>2184165</v>
       </c>
       <c r="F5" s="2">
-        <v>3772365</v>
+        <v>3665686</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>10</v>
@@ -12025,19 +12216,19 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>8111756</v>
+        <v>7778765</v>
       </c>
       <c r="C6" s="2">
-        <v>8017424</v>
+        <v>7735518</v>
       </c>
       <c r="D6" s="2">
-        <v>4078382</v>
+        <v>3965848</v>
       </c>
       <c r="E6" s="2">
-        <v>3900128</v>
+        <v>3878578</v>
       </c>
       <c r="F6" s="2">
-        <v>4029633</v>
+        <v>3900545</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12045,19 +12236,19 @@
         <v>32</v>
       </c>
       <c r="B7" s="2">
-        <v>8270784</v>
+        <v>8001444</v>
       </c>
       <c r="C7" s="2">
-        <v>8098482</v>
+        <v>7892620</v>
       </c>
       <c r="D7" s="2">
-        <v>3989242</v>
+        <v>3908157</v>
       </c>
       <c r="E7" s="2">
-        <v>4101172</v>
+        <v>3998924</v>
       </c>
       <c r="F7" s="2">
-        <v>3966032</v>
+        <v>3811551</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12065,19 +12256,19 @@
         <v>64</v>
       </c>
       <c r="B8" s="2">
-        <v>7852097</v>
+        <v>7876229</v>
       </c>
       <c r="C8" s="2">
-        <v>7609583</v>
+        <v>7515454</v>
       </c>
       <c r="D8" s="2">
-        <v>3894497</v>
+        <v>3991337</v>
       </c>
       <c r="E8" s="2">
-        <v>3843204</v>
+        <v>3883152</v>
       </c>
       <c r="F8" s="2">
-        <v>3778601</v>
+        <v>3844903</v>
       </c>
     </row>
     <row r="73" spans="24:24">

--- a/Workbook2.xlsx
+++ b/Workbook2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="21160" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="21160" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sync Primitives on Counter" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="91">
   <si>
     <t>Threads</t>
   </si>
@@ -300,6 +300,9 @@
   <si>
     <t>2 Threads</t>
   </si>
+  <si>
+    <t>Graph</t>
+  </si>
 </sst>
 </file>
 
@@ -363,8 +366,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -468,7 +523,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="147">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -516,6 +571,32 @@
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -563,6 +644,32 @@
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1011,6 +1118,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>JVM Locking (Compared to Default)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -1019,9 +1145,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.102777961000948"/>
-          <c:y val="0.0436899850328626"/>
+          <c:y val="0.0784007288345155"/>
           <c:w val="0.751554836895388"/>
-          <c:h val="0.896360502234518"/>
+          <c:h val="0.790575388820199"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1032,7 +1158,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'JVM Locking (SYNC)'!$B$1</c:f>
+              <c:f>'JVM Locking (SYNC)'!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1044,62 +1170,32 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'JVM Locking (SYNC)'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
+          <c:val>
+            <c:numRef>
+              <c:f>'JVM Locking (SYNC)'!$P$2:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11.49977870039242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'JVM Locking (SYNC)'!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.6276612E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.498285E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.983128E6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.289576E6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.226632E6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.495831E6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.975478E6</c:v>
+                  <c:v>183.3792788404941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>269.5263143952955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>567.7630275147921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>461.8794957781988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>634.033557400229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>541.7931076464263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1111,7 +1207,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'JVM Locking (SYNC)'!$C$1</c:f>
+              <c:f>'JVM Locking (SYNC)'!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1123,62 +1219,32 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'JVM Locking (SYNC)'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
+          <c:val>
+            <c:numRef>
+              <c:f>'JVM Locking (SYNC)'!$Q$2:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.612427631432953</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'JVM Locking (SYNC)'!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.667333E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.776438E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.433602E6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.571625E6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.046853E6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0598E6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.218561E6</c:v>
+                  <c:v>77.87612257143866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>178.2105948302146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>539.0342384474668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>521.4984476169025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>557.8224414991747</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>546.0866128990818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,7 +1256,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'JVM Locking (SYNC)'!$D$1</c:f>
+              <c:f>'JVM Locking (SYNC)'!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1202,62 +1268,26 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'JVM Locking (SYNC)'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'JVM Locking (SYNC)'!$D$2:$D$8</c:f>
+              <c:f>'JVM Locking (SYNC)'!$R$2:$R$9</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.666282E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.047693E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.79209E6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.892313E6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.360551E6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.351433E6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.143148E6</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="2">
+                  <c:v>29.04214404193993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.7328317249842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>295.7642462502324</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>483.7080498996251</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>653.5109705829866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1269,7 +1299,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'JVM Locking (SYNC)'!$E$1</c:f>
+              <c:f>'JVM Locking (SYNC)'!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1281,62 +1311,26 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'JVM Locking (SYNC)'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'JVM Locking (SYNC)'!$E$2:$E$8</c:f>
+              <c:f>'JVM Locking (SYNC)'!$S$2:$S$9</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.6284588E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.193028E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.016021E6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.372928E6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.466572E6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.426251E6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.166049E6</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="2">
+                  <c:v>161.7706209409525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>453.9365924505873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>442.8392591703646</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>525.6476966536745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>679.194287718612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1348,7 +1342,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'JVM Locking (SYNC)'!$F$1</c:f>
+              <c:f>'JVM Locking (SYNC)'!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1360,62 +1354,26 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'JVM Locking (SYNC)'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'JVM Locking (SYNC)'!$F$2:$F$8</c:f>
+              <c:f>'JVM Locking (SYNC)'!$T$2:$T$9</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.6281468E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.290259E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.025763E6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.390491E6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.181521E6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.308645E6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.470556E6</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="2">
+                  <c:v>106.3303412097072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>308.4444962247148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>567.7428814214898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>583.6719675695088</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>545.7241886742157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1442,20 +1400,29 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="822587720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
@@ -1466,13 +1433,35 @@
       <c:valAx>
         <c:axId val="822587720"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
-          <c:min val="1.0E6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> drop compared to without Locks</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1480,33 +1469,27 @@
         <c:crossAx val="679986312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -2527,6 +2510,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>JVM Locking (Biased) Throughput</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -2535,9 +2537,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.102777961000948"/>
-          <c:y val="0.0436899850328626"/>
+          <c:y val="0.0998883321403006"/>
           <c:w val="0.751554836895388"/>
-          <c:h val="0.896360502234518"/>
+          <c:h val="0.780658033448298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2754,12 +2756,6 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>7.9257013E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.8828979E7</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>7.8504088E7</c:v>
                 </c:pt>
@@ -2833,12 +2829,6 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.87137735E8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.8848683E7</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>2.955888E6</c:v>
                 </c:pt>
@@ -2912,12 +2902,6 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.86188359E8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.841778E7</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>4.728841E6</c:v>
                 </c:pt>
@@ -2958,20 +2942,29 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="682183480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
@@ -2982,11 +2975,32 @@
       <c:valAx>
         <c:axId val="682183480"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
+          <c:min val="1.0E6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput ops/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3006,21 +3020,21 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -3043,6 +3057,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>JVM Locking (Biased) compared to Default</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -3051,9 +3089,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.102777961000948"/>
-          <c:y val="0.0436899850328626"/>
+          <c:y val="0.0932767618923667"/>
           <c:w val="0.751554836895388"/>
-          <c:h val="0.896360502234518"/>
+          <c:h val="0.777352248324331"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3064,7 +3102,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Biased Locking (JVM)'!$B$1</c:f>
+              <c:f>'Biased Locking (JVM)'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3078,7 +3116,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Biased Locking (JVM)'!$A$2:$A$8</c:f>
+              <c:f>'Biased Locking (JVM)'!$N$2:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3108,30 +3146,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Biased Locking (JVM)'!$B$2:$B$8</c:f>
+              <c:f>'Biased Locking (JVM)'!$O$2:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.41043428E8</c:v>
+                  <c:v>1.730696470181299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.812128E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.152392E6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.167498E6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.317797E6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.251664E6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.51923E6</c:v>
+                  <c:v>152.5385678524469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>260.671960518532</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448.1584943772019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>452.1274754232309</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>681.6430495278724</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>476.6047711667695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3143,7 +3181,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Biased Locking (JVM)'!$C$1</c:f>
+              <c:f>'Biased Locking (JVM)'!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3157,7 +3195,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Biased Locking (JVM)'!$A$2:$A$8</c:f>
+              <c:f>'Biased Locking (JVM)'!$N$2:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3187,30 +3225,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Biased Locking (JVM)'!$C$2:$C$8</c:f>
+              <c:f>'Biased Locking (JVM)'!$P$2:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.9440106E7</c:v>
+                  <c:v>1.387852981968579</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.993079E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.299309E6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.979681E6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.903383E6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.221538E6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.683592E6</c:v>
+                  <c:v>72.23939829185932</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>188.619128616467</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>427.9273706218325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>560.8070798152553</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>517.210448347046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>719.6081128919595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3222,7 +3260,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Biased Locking (JVM)'!$D$1</c:f>
+              <c:f>'Biased Locking (JVM)'!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3236,7 +3274,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Biased Locking (JVM)'!$A$2:$A$8</c:f>
+              <c:f>'Biased Locking (JVM)'!$N$2:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3266,30 +3304,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Biased Locking (JVM)'!$D$2:$D$8</c:f>
+              <c:f>'Biased Locking (JVM)'!$Q$2:$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>7.9257013E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.8828979E7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.8504088E7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.666295E6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.353238E6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.641257E6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.666961E6</c:v>
+                <c:pt idx="2">
+                  <c:v>1.402862281515836</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.42775986903174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170.9994233477447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>398.2916880171722</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>448.1567109248507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3301,7 +3333,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Biased Locking (JVM)'!$E$1</c:f>
+              <c:f>'Biased Locking (JVM)'!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3315,7 +3347,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Biased Locking (JVM)'!$A$2:$A$8</c:f>
+              <c:f>'Biased Locking (JVM)'!$N$2:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3345,30 +3377,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Biased Locking (JVM)'!$E$2:$E$8</c:f>
+              <c:f>'Biased Locking (JVM)'!$R$2:$R$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.87137735E8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.8848683E7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.955888E6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.168983E6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.98303E6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.622263E6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.680418E6</c:v>
+                <c:pt idx="2">
+                  <c:v>110.3333309651787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>287.333860154736</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327.506723549316</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>462.1356420013278</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>471.2957252302701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3380,7 +3406,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Biased Locking (JVM)'!$F$1</c:f>
+              <c:f>'Biased Locking (JVM)'!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3394,7 +3420,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Biased Locking (JVM)'!$A$2:$A$8</c:f>
+              <c:f>'Biased Locking (JVM)'!$N$2:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3424,30 +3450,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Biased Locking (JVM)'!$F$2:$F$8</c:f>
+              <c:f>'Biased Locking (JVM)'!$S$2:$S$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.86188359E8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.841778E7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.728841E6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.587843E6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.519111E6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.236253E6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.688269E6</c:v>
+                <c:pt idx="2">
+                  <c:v>45.55028832646308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165.732347750617</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>441.5741423766927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>341.5621586645161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>475.3495918008326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3474,20 +3494,34 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="676715464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
@@ -3498,13 +3532,35 @@
       <c:valAx>
         <c:axId val="676715464"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
-          <c:min val="1.0E6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>X drop compared to without Locks</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3512,33 +3568,27 @@
         <c:crossAx val="677336312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -9945,6 +9995,17 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet15!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet15!$F$6</c:f>
@@ -9973,6 +10034,17 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet15!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet15!$G$6</c:f>
@@ -10001,6 +10073,17 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet15!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet15!$H$6</c:f>
@@ -10029,6 +10112,17 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet15!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet15!$I$6</c:f>
@@ -10057,6 +10151,17 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet15!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet15!$J$6</c:f>
@@ -10085,6 +10190,17 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet15!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet15!$K$6</c:f>
@@ -10113,6 +10229,17 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet15!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet15!$L$6</c:f>
@@ -10141,6 +10268,17 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet15!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet15!$M$6</c:f>
@@ -10169,6 +10307,17 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet15!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet15!$N$6</c:f>
@@ -10197,6 +10346,17 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet15!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet15!$O$6</c:f>
@@ -10762,6 +10922,7 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -10849,6 +11010,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>No Synchronization Primitives</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -10857,9 +11037,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.102777961000948"/>
-          <c:y val="0.0436899850328626"/>
+          <c:y val="0.0717135855805635"/>
           <c:w val="0.751554836895388"/>
-          <c:h val="0.896360502234518"/>
+          <c:h val="0.816714514667967"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -11265,20 +11445,38 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="589194824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
@@ -11313,21 +11511,21 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -11350,6 +11548,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>JVM Locking Throughput</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -11358,9 +11575,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.102777961000948"/>
-          <c:y val="0.0436899850328626"/>
+          <c:y val="0.0916238693303833"/>
           <c:w val="0.751554836895388"/>
-          <c:h val="0.896360502234518"/>
+          <c:h val="0.8004927441921"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -11577,12 +11794,6 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.666282E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.047693E6</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>3.79209E6</c:v>
                 </c:pt>
@@ -11656,12 +11867,6 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.6284588E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.193028E6</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>2.016021E6</c:v>
                 </c:pt>
@@ -11735,12 +11940,6 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.6281468E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.290259E6</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>2.025763E6</c:v>
                 </c:pt>
@@ -11781,20 +11980,29 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="822422520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
@@ -11805,11 +12013,37 @@
       <c:valAx>
         <c:axId val="822422520"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
+          <c:min val="1.0E6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> ops/sec</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -11829,21 +12063,21 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -12239,8 +12473,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13665,10 +13899,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="V39" sqref="V39"/>
+    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="W65" sqref="W65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14206,9 +14440,140 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="24:24">
+    <row r="33" spans="23:24">
       <c r="X33" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="23:24">
+      <c r="W40">
+        <v>1.4862E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="23:24">
+      <c r="W41">
+        <v>7.038E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="23:24">
+      <c r="W42">
+        <v>7.3439999999999998E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="23:24">
+      <c r="W43">
+        <v>6.3579999999999999E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="23:24">
+      <c r="W44">
+        <v>6.3810000000000004E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="23:24">
+      <c r="W45">
+        <v>5.4380000000000001E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="23:24">
+      <c r="W46">
+        <v>5.0280000000000004E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="23:24">
+      <c r="W47">
+        <v>4.0559999999999997E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="23:24">
+      <c r="W48">
+        <v>3.8869999999999998E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="23:23">
+      <c r="W49">
+        <v>3.493E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="23:23">
+      <c r="W50">
+        <v>3.885E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="23:23">
+      <c r="W51">
+        <v>3.5300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="23:23">
+      <c r="W52">
+        <v>3.6540000000000001E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="23:23">
+      <c r="W53">
+        <v>3.4090000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="23:23">
+      <c r="W54">
+        <v>3.7690000000000002E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="23:23">
+      <c r="W55">
+        <v>3.7269999999999998E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="23:23">
+      <c r="W56">
+        <v>3.2690000000000002E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="23:23">
+      <c r="W57">
+        <v>3.7299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="23:23">
+      <c r="W58">
+        <v>3.9709999999999997E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="23:23">
+      <c r="W59">
+        <v>3.2490000000000002E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="23:23">
+      <c r="W60">
+        <v>3.0639999999999999E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="23:23">
+      <c r="W61">
+        <v>3.2209999999999999E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="23:23">
+      <c r="W62">
+        <v>3.0560000000000001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="23:23">
+      <c r="W63">
+        <v>3.003E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="23:23">
+      <c r="W64">
+        <v>3.6900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="23:23">
+      <c r="W65">
+        <f>SUM(W40:W64)</f>
+        <v>0.11611199999999999</v>
       </c>
     </row>
   </sheetData>
@@ -14413,10 +14778,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X73"/>
+  <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showRuler="0" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14425,7 +14790,7 @@
     <col min="5" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14444,8 +14809,26 @@
       <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14455,20 +14838,28 @@
       <c r="C2" s="2">
         <v>16673330</v>
       </c>
-      <c r="D2" s="3">
-        <v>16662820</v>
-      </c>
-      <c r="E2" s="3">
-        <v>36284588</v>
-      </c>
-      <c r="F2" s="3">
-        <v>36281468</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="J2" t="s">
         <v>21</v>
       </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <f>(Default!B2/B2)</f>
+        <v>11.499778700392419</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>(Default!C2/C2)</f>
+        <v>6.6124276314329533</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14478,20 +14869,28 @@
       <c r="C3" s="2">
         <v>2776438</v>
       </c>
-      <c r="D3" s="3">
-        <v>3047693</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3193028</v>
-      </c>
-      <c r="F3" s="3">
-        <v>3290259</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="J3" t="s">
         <v>22</v>
       </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" s="2">
+        <f>(Default!B3/B3)</f>
+        <v>183.37927884049407</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>(Default!C3/C3)</f>
+        <v>77.876122571438657</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>4</v>
       </c>
@@ -14513,8 +14912,31 @@
       <c r="J4" t="s">
         <v>12</v>
       </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4" s="2">
+        <f>(Default!B4/B4)</f>
+        <v>269.52631439529546</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>(Default!C4/C4)</f>
+        <v>178.21059483021463</v>
+      </c>
+      <c r="R4" s="2">
+        <f>(Default!D4/D4)</f>
+        <v>29.042144041939935</v>
+      </c>
+      <c r="S4" s="2">
+        <f>(Default!E4/E4)</f>
+        <v>161.77062094095251</v>
+      </c>
+      <c r="T4" s="2">
+        <f>(Default!F4/F4)</f>
+        <v>106.33034120970716</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>8</v>
       </c>
@@ -14536,8 +14958,31 @@
       <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5" s="2">
+        <f>(Default!B5/B5)</f>
+        <v>567.76302751479216</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>(Default!C5/C5)</f>
+        <v>539.03423844746681</v>
+      </c>
+      <c r="R5" s="2">
+        <f>(Default!D5/D5)</f>
+        <v>114.73283172498418</v>
+      </c>
+      <c r="S5" s="2">
+        <f>(Default!E5/E5)</f>
+        <v>453.93659245058734</v>
+      </c>
+      <c r="T5" s="2">
+        <f>(Default!F5/F5)</f>
+        <v>308.44449622471484</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>16</v>
       </c>
@@ -14556,8 +15001,31 @@
       <c r="F6" s="2">
         <v>1181521</v>
       </c>
+      <c r="O6">
+        <v>16</v>
+      </c>
+      <c r="P6" s="2">
+        <f>(Default!B6/B6)</f>
+        <v>461.87949577819882</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>(Default!C6/C6)</f>
+        <v>521.49844761690258</v>
+      </c>
+      <c r="R6" s="2">
+        <f>(Default!D6/D6)</f>
+        <v>295.76424625023242</v>
+      </c>
+      <c r="S6" s="2">
+        <f>(Default!E6/E6)</f>
+        <v>442.83925917036464</v>
+      </c>
+      <c r="T6" s="2">
+        <f>(Default!F6/F6)</f>
+        <v>567.74288142148976</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>32</v>
       </c>
@@ -14576,8 +15044,31 @@
       <c r="F7" s="2">
         <v>1308645</v>
       </c>
+      <c r="O7">
+        <v>32</v>
+      </c>
+      <c r="P7" s="2">
+        <f>(Default!B7/B7)</f>
+        <v>634.03355740022903</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>(Default!C7/C7)</f>
+        <v>557.82244149917472</v>
+      </c>
+      <c r="R7" s="2">
+        <f>(Default!D7/D7)</f>
+        <v>483.70804989962505</v>
+      </c>
+      <c r="S7" s="2">
+        <f>(Default!E7/E7)</f>
+        <v>525.64769665367453</v>
+      </c>
+      <c r="T7" s="2">
+        <f>(Default!F7/F7)</f>
+        <v>583.67196756950887</v>
+      </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>64</v>
       </c>
@@ -14599,15 +15090,41 @@
       <c r="J8" t="s">
         <v>27</v>
       </c>
+      <c r="O8">
+        <v>64</v>
+      </c>
+      <c r="P8" s="2">
+        <f>(Default!B8/B8)</f>
+        <v>541.79310764642639</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>(Default!C8/C8)</f>
+        <v>546.08661289908184</v>
+      </c>
+      <c r="R8" s="2">
+        <f>(Default!D8/D8)</f>
+        <v>653.5109705829866</v>
+      </c>
+      <c r="S8" s="2">
+        <f>(Default!E8/E8)</f>
+        <v>679.19428771861214</v>
+      </c>
+      <c r="T8" s="2">
+        <f>(Default!F8/F8)</f>
+        <v>545.72418867421572</v>
+      </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:20">
       <c r="J9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="73" spans="24:24">
-      <c r="X73" s="1" t="s">
-        <v>19</v>
+      <c r="X73" s="1"/>
+    </row>
+    <row r="115" spans="6:6">
+      <c r="F115" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -14817,17 +15334,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="X73" sqref="X73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14846,8 +15364,26 @@
       <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14857,17 +15393,25 @@
       <c r="C2" s="2">
         <v>79440106</v>
       </c>
-      <c r="D2" s="3">
-        <v>79257013</v>
-      </c>
-      <c r="E2" s="3">
-        <v>387137735</v>
-      </c>
-      <c r="F2" s="3">
-        <v>386188359</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <f>Default!B2/B2</f>
+        <v>1.7306964701812986</v>
+      </c>
+      <c r="P2" s="2">
+        <f>Default!C2/C2</f>
+        <v>1.387852981968579</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14877,20 +15421,28 @@
       <c r="C3" s="2">
         <v>2993079</v>
       </c>
-      <c r="D3" s="3">
-        <v>78828979</v>
-      </c>
-      <c r="E3" s="3">
-        <v>78848683</v>
-      </c>
-      <c r="F3" s="3">
-        <v>78417780</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="J3" t="s">
         <v>11</v>
       </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2">
+        <f>Default!B3/B3</f>
+        <v>152.53856785244687</v>
+      </c>
+      <c r="P3" s="2">
+        <f>Default!C3/C3</f>
+        <v>72.239398291859317</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>4</v>
       </c>
@@ -14912,8 +15464,31 @@
       <c r="J4" t="s">
         <v>12</v>
       </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4" s="2">
+        <f>Default!B4/B4</f>
+        <v>260.67196051853199</v>
+      </c>
+      <c r="P4" s="2">
+        <f>Default!C4/C4</f>
+        <v>188.61912861646695</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>Default!D4/D4</f>
+        <v>1.4028622815158365</v>
+      </c>
+      <c r="R4" s="2">
+        <f>Default!E4/E4</f>
+        <v>110.33333096517866</v>
+      </c>
+      <c r="S4" s="2">
+        <f>Default!F4/F4</f>
+        <v>45.550288326463082</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>8</v>
       </c>
@@ -14935,8 +15510,31 @@
       <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5" s="2">
+        <f>Default!B5/B5</f>
+        <v>448.15849437720186</v>
+      </c>
+      <c r="P5" s="2">
+        <f>Default!C5/C5</f>
+        <v>427.92737062183249</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>Default!D5/D5</f>
+        <v>81.427759869031746</v>
+      </c>
+      <c r="R5" s="2">
+        <f>Default!E5/E5</f>
+        <v>287.3338601547361</v>
+      </c>
+      <c r="S5" s="2">
+        <f>Default!F5/F5</f>
+        <v>165.73234775061701</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>16</v>
       </c>
@@ -14955,8 +15553,31 @@
       <c r="F6" s="2">
         <v>1519111</v>
       </c>
+      <c r="N6">
+        <v>16</v>
+      </c>
+      <c r="O6" s="2">
+        <f>Default!B6/B6</f>
+        <v>452.12747542323086</v>
+      </c>
+      <c r="P6" s="2">
+        <f>Default!C6/C6</f>
+        <v>560.80707981525529</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>Default!D6/D6</f>
+        <v>170.99942334774468</v>
+      </c>
+      <c r="R6" s="2">
+        <f>Default!E6/E6</f>
+        <v>327.50672354931595</v>
+      </c>
+      <c r="S6" s="2">
+        <f>Default!F6/F6</f>
+        <v>441.57414237669269</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>32</v>
       </c>
@@ -14975,8 +15596,31 @@
       <c r="F7" s="2">
         <v>2236253</v>
       </c>
+      <c r="N7">
+        <v>32</v>
+      </c>
+      <c r="O7" s="2">
+        <f>Default!B7/B7</f>
+        <v>681.64304952787245</v>
+      </c>
+      <c r="P7" s="2">
+        <f>Default!C7/C7</f>
+        <v>517.21044834704605</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>Default!D7/D7</f>
+        <v>398.29168801717219</v>
+      </c>
+      <c r="R7" s="2">
+        <f>Default!E7/E7</f>
+        <v>462.13564200132777</v>
+      </c>
+      <c r="S7" s="2">
+        <f>Default!F7/F7</f>
+        <v>341.56215866451606</v>
+      </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>64</v>
       </c>
@@ -14995,11 +15639,32 @@
       <c r="F8" s="2">
         <v>1688269</v>
       </c>
+      <c r="N8">
+        <v>64</v>
+      </c>
+      <c r="O8" s="2">
+        <f>Default!B8/B8</f>
+        <v>476.60477116676958</v>
+      </c>
+      <c r="P8" s="2">
+        <f>Default!C8/C8</f>
+        <v>719.60811289195954</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>Default!D8/D8</f>
+        <v>448.1567109248507</v>
+      </c>
+      <c r="R8" s="2">
+        <f>Default!E8/E8</f>
+        <v>471.29572523027008</v>
+      </c>
+      <c r="S8" s="2">
+        <f>Default!F8/F8</f>
+        <v>475.34959180083268</v>
+      </c>
     </row>
     <row r="73" spans="24:24">
-      <c r="X73" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="X73" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Workbook2.xlsx
+++ b/Workbook2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="21160" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="21160" tabRatio="500" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sync Primitives on Counter" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="91">
   <si>
     <t>Threads</t>
   </si>
@@ -366,8 +366,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="147">
+  <cellStyleXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -523,7 +525,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="147">
+  <cellStyles count="149">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -597,6 +599,7 @@
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -670,6 +673,7 @@
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2536,8 +2540,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.102777961000948"/>
-          <c:y val="0.0998883321403006"/>
+          <c:x val="0.100698948494224"/>
+          <c:y val="0.0684833734626147"/>
           <c:w val="0.751554836895388"/>
           <c:h val="0.780658033448298"/>
         </c:manualLayout>
@@ -5906,12 +5910,6 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.6098966E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.086823E6</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>4.584775E6</c:v>
                 </c:pt>
@@ -5985,12 +5983,6 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.7718997E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.085397E6</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>4.792576E6</c:v>
                 </c:pt>
@@ -6064,12 +6056,6 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.7741452E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>985973.0</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>3.363112E6</c:v>
                 </c:pt>
@@ -6876,12 +6862,6 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.6098966E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.086823E6</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>4.584775E6</c:v>
                 </c:pt>
@@ -6955,12 +6935,6 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.7718997E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.085397E6</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>4.792576E6</c:v>
                 </c:pt>
@@ -7034,12 +7008,6 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.7741452E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>985973.0</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>3.363112E6</c:v>
                 </c:pt>
@@ -7167,6 +7135,1107 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>JUC Locking (Reentrant) Throughput</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.100698948494224"/>
+          <c:y val="0.0684833734626147"/>
+          <c:w val="0.751554836895388"/>
+          <c:h val="0.780658033448298"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W1 (100% R)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7840201E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.452352E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.714729E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.942973E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.111756E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.270784E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.852097E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W2 (100% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.6293478E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.900346E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.855148E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.962388E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.017424E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.098482E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.609583E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W3 (75% R, 25% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="2">
+                  <c:v>4.584775E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.323429E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.078382E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.989242E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.894497E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W4 (75% W, 25% R)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="2">
+                  <c:v>4.792576E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.439856E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.900128E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.101172E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.843204E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W5 (50% R, 50% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="2">
+                  <c:v>3.363112E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.772365E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.029633E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.966032E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.778601E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="766142968"/>
+        <c:axId val="741458760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="766142968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="741458760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="741458760"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0E6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput ops/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="766142968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>JUC Locking (Reentrant) compared to Default</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.102777961000948"/>
+          <c:y val="0.0932767618923667"/>
+          <c:w val="0.751554836895388"/>
+          <c:h val="0.777352248324331"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W1 (100% R)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$M$2:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$N$2:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>23.38387387003095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>485.9216038317501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0206000867645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>235.1386098127238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240.6623987457216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>267.9883992859685</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>274.3071793433015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W2 (100% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$M$2:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$O$2:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.766584028284201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113.7783466800256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.21139257974516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.395177552262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133.138856320933</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141.8787699966487</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>159.2106245506488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W3 (75% R, 25% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$M$2:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$P$2:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="2">
+                  <c:v>24.02090048039435</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.4439696672461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.66715305236243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>163.8654714354256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>191.8244535815537</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W4 (75% W, 25% R)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$M$2:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="2">
+                  <c:v>68.04961861846323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>255.434032992111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>166.5216264696953</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182.8027580896388</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>206.0712415994571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W5 (50% R, 50% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$M$2:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - Reentrant (Warmup)'!$R$2:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="2">
+                  <c:v>64.0478434854385</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113.6924173562208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>166.4668065305203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.5903275616536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>212.3849488210055</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="837143000"/>
+        <c:axId val="693974040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="837143000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="693974040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="693974040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>X drop compared to without Locks</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="837143000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -7669,7 +8738,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12214,6 +13283,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4" title="Performance of System when Biased Locking is enabled (Log Scale)"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13325,8 +14458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13335,7 +14468,7 @@
     <col min="5" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13354,8 +14487,26 @@
       <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13365,20 +14516,28 @@
       <c r="C2" s="2">
         <v>16293478</v>
       </c>
-      <c r="D2" s="3">
-        <v>16098966</v>
-      </c>
-      <c r="E2" s="3">
-        <v>17718997</v>
-      </c>
-      <c r="F2" s="3">
-        <v>17741452</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="J2" t="s">
         <v>23</v>
       </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <f>Default!B2/B2</f>
+        <v>23.38387387003095</v>
+      </c>
+      <c r="O2" s="2">
+        <f>Default!C2/C2</f>
+        <v>6.7665840282842007</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13388,20 +14547,28 @@
       <c r="C3" s="2">
         <v>1900346</v>
       </c>
-      <c r="D3" s="3">
-        <v>1086823</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1085397</v>
-      </c>
-      <c r="F3" s="3">
-        <v>985973</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="J3" t="s">
         <v>4</v>
       </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2">
+        <f>Default!B3/B3</f>
+        <v>485.92160383175008</v>
+      </c>
+      <c r="O3" s="2">
+        <f>Default!C3/C3</f>
+        <v>113.77834668002563</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>4</v>
       </c>
@@ -13423,8 +14590,31 @@
       <c r="J4" t="s">
         <v>24</v>
       </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4" s="2">
+        <f>Default!B4/B4</f>
+        <v>200.02060008676449</v>
+      </c>
+      <c r="O4" s="2">
+        <f>Default!C4/C4</f>
+        <v>55.211392579745159</v>
+      </c>
+      <c r="P4" s="2">
+        <f>Default!D4/D4</f>
+        <v>24.020900480394349</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>Default!E4/E4</f>
+        <v>68.049618618463228</v>
+      </c>
+      <c r="R4" s="2">
+        <f>Default!F4/F4</f>
+        <v>64.047843485438491</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>8</v>
       </c>
@@ -13446,8 +14636,31 @@
       <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5" s="2">
+        <f>Default!B5/B5</f>
+        <v>235.13860981272379</v>
+      </c>
+      <c r="O5" s="2">
+        <f>Default!C5/C5</f>
+        <v>106.39517755226196</v>
+      </c>
+      <c r="P5" s="2">
+        <f>Default!D5/D5</f>
+        <v>93.443969667246122</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>Default!E5/E5</f>
+        <v>255.43403299211101</v>
+      </c>
+      <c r="R5" s="2">
+        <f>Default!F5/F5</f>
+        <v>113.69241735622083</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>16</v>
       </c>
@@ -13466,8 +14679,31 @@
       <c r="F6" s="2">
         <v>4029633</v>
       </c>
+      <c r="M6">
+        <v>16</v>
+      </c>
+      <c r="N6" s="2">
+        <f>Default!B6/B6</f>
+        <v>240.66239874572165</v>
+      </c>
+      <c r="O6" s="2">
+        <f>Default!C6/C6</f>
+        <v>133.138856320933</v>
+      </c>
+      <c r="P6" s="2">
+        <f>Default!D6/D6</f>
+        <v>98.667153052362437</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>Default!E6/E6</f>
+        <v>166.52162646969535</v>
+      </c>
+      <c r="R6" s="2">
+        <f>Default!F6/F6</f>
+        <v>166.46680653052027</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>32</v>
       </c>
@@ -13486,8 +14722,31 @@
       <c r="F7" s="2">
         <v>3966032</v>
       </c>
+      <c r="M7">
+        <v>32</v>
+      </c>
+      <c r="N7" s="2">
+        <f>Default!B7/B7</f>
+        <v>267.98839928596851</v>
+      </c>
+      <c r="O7" s="2">
+        <f>Default!C7/C7</f>
+        <v>141.87876999664874</v>
+      </c>
+      <c r="P7" s="2">
+        <f>Default!D7/D7</f>
+        <v>163.86547143542558</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>Default!E7/E7</f>
+        <v>182.80275808963876</v>
+      </c>
+      <c r="R7" s="2">
+        <f>Default!F7/F7</f>
+        <v>192.59032756165357</v>
+      </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>64</v>
       </c>
@@ -13505,6 +14764,29 @@
       </c>
       <c r="F8" s="2">
         <v>3778601</v>
+      </c>
+      <c r="M8">
+        <v>64</v>
+      </c>
+      <c r="N8" s="2">
+        <f>Default!B8/B8</f>
+        <v>274.30717934330153</v>
+      </c>
+      <c r="O8" s="2">
+        <f>Default!C8/C8</f>
+        <v>159.21062455064884</v>
+      </c>
+      <c r="P8" s="2">
+        <f>Default!D8/D8</f>
+        <v>191.82445358155366</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>Default!E8/E8</f>
+        <v>206.07124159945712</v>
+      </c>
+      <c r="R8" s="2">
+        <f>Default!F8/F8</f>
+        <v>212.38494882100545</v>
       </c>
     </row>
     <row r="73" spans="24:24">
@@ -13529,7 +14811,7 @@
   <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+      <selection activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15334,8 +16616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="X73" sqref="X73"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15882,7 +17164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A47" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>

--- a/Workbook2.xlsx
+++ b/Workbook2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="21160" tabRatio="500" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="21160" tabRatio="500" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sync Primitives on Counter" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="UnBiased Locking (JVM)" sheetId="7" r:id="rId8"/>
     <sheet name="JUC - Reentrant" sheetId="12" r:id="rId9"/>
     <sheet name="JUC - Reentrant (Warmup)" sheetId="13" r:id="rId10"/>
-    <sheet name="JUC - ReentrantRW" sheetId="14" r:id="rId11"/>
+    <sheet name="JUC - ReentrantRW" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>Threads</t>
   </si>
@@ -303,6 +303,9 @@
   <si>
     <t>Graph</t>
   </si>
+  <si>
+    <t>RW Lock</t>
+  </si>
 </sst>
 </file>
 
@@ -366,8 +369,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="149">
+  <cellStyleXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -525,7 +532,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="149">
+  <cellStyles count="153">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -600,6 +607,8 @@
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -674,6 +683,8 @@
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8463,12 +8474,6 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.6952126E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.536799E6</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>2.198435E6</c:v>
                 </c:pt>
@@ -8542,12 +8547,6 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.7071401E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.411132E6</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>4.405663E6</c:v>
                 </c:pt>
@@ -8621,12 +8620,6 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.7678942E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.460828E6</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>1.718534E6</c:v>
                 </c:pt>
@@ -8657,11 +8650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="670318312"/>
-        <c:axId val="670321464"/>
+        <c:axId val="878382072"/>
+        <c:axId val="765560472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="670318312"/>
+        <c:axId val="878382072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8681,7 +8674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="670321464"/>
+        <c:crossAx val="765560472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -8689,7 +8682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="670321464"/>
+        <c:axId val="765560472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8700,7 +8693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="670318312"/>
+        <c:crossAx val="878382072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -8979,12 +8972,6 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.6952126E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.536799E6</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>2.198435E6</c:v>
                 </c:pt>
@@ -9058,12 +9045,6 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.7071401E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.411132E6</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>4.405663E6</c:v>
                 </c:pt>
@@ -9137,12 +9118,6 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.7678942E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.460828E6</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>1.718534E6</c:v>
                 </c:pt>
@@ -9173,11 +9148,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="670430824"/>
-        <c:axId val="670433976"/>
+        <c:axId val="809531224"/>
+        <c:axId val="809651912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="670430824"/>
+        <c:axId val="809531224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9197,7 +9172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="670433976"/>
+        <c:crossAx val="809651912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9205,11 +9180,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="670433976"/>
+        <c:axId val="809651912"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
-          <c:min val="100000.0"/>
+          <c:min val="1.0E6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9218,7 +9193,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="670430824"/>
+        <c:crossAx val="809531224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -9248,6 +9223,1107 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>JUC Locking (Reentrant) Throughput</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.100698948494224"/>
+          <c:y val="0.0684833734626147"/>
+          <c:w val="0.751554836895388"/>
+          <c:h val="0.780658033448298"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - ReentrantRW'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W1 (100% R)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.7169053E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.632446E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.294927E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>981485.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.140456E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>878312.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>431569.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - ReentrantRW'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W2 (100% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.6937371E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.307236E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.763037E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.418286E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.502043E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.787801E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.298246E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - ReentrantRW'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W3 (75% R, 25% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="2">
+                  <c:v>2.198435E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.470393E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.266718E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>965483.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.141846E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - ReentrantRW'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W4 (75% W, 25% R)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="2">
+                  <c:v>4.405663E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.532608E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.040168E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>901715.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>863763.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - ReentrantRW'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W5 (50% R, 50% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="2">
+                  <c:v>1.718534E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.160542E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.114637E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.016521E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>975265.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="738080248"/>
+        <c:axId val="823345416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="738080248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="823345416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="823345416"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0E6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput ops/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="738080248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>JUC Locking (Reentrant) compared to Default</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.102777961000948"/>
+          <c:y val="0.0932767618923667"/>
+          <c:w val="0.751554836895388"/>
+          <c:h val="0.777352248324331"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - ReentrantRW'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W1 (100% R)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$M$2:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$N$2:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>24.29796273562671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>729.9787049617567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1037.189064711756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1902.932422808296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1711.766746810048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2523.561291431746</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4990.827839812406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - ReentrantRW'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W2 (100% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$M$2:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$O$2:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.509344809179654</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.7130948026123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.86649400228287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.1988439108441</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.2853297428447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>147.5387808445542</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>166.0024151008338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - ReentrantRW'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W3 (75% R, 25% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$M$2:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$P$2:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="2">
+                  <c:v>50.09491934034893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147.6546943572229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>317.6731845604152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>677.0694263907288</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>654.256142246853</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - ReentrantRW'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W4 (75% W, 25% R)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$M$2:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="2">
+                  <c:v>74.02585467839914</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>406.6416578799014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>624.375733535352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>831.4218494757213</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>916.887873178175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JUC - ReentrantRW'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W5 (50% R, 50% W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$M$2:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JUC - ReentrantRW'!$R$2:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="2">
+                  <c:v>125.3394294206574</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>369.5594782437861</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>601.810398362875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>751.4054328439845</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>822.8717117911542</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="725989688"/>
+        <c:axId val="725981432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="725989688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="725981432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="725981432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>X drop compared to without Locks</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="725989688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -13416,6 +14492,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4" title="Performance of System when Biased Locking is enabled (Log Scale)"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14458,8 +15598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14810,8 +15950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="K106" sqref="K106"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14820,7 +15960,7 @@
     <col min="5" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14839,8 +15979,26 @@
       <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14850,20 +16008,28 @@
       <c r="C2" s="2">
         <v>16937371</v>
       </c>
-      <c r="D2" s="3">
-        <v>16952126</v>
-      </c>
-      <c r="E2" s="3">
-        <v>17071401</v>
-      </c>
-      <c r="F2" s="3">
-        <v>17678942</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="J2" t="s">
         <v>23</v>
       </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <f>Default!B2/B2</f>
+        <v>24.297962735626712</v>
+      </c>
+      <c r="O2" s="2">
+        <f>Default!C2/C2</f>
+        <v>6.5093448091796535</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14873,20 +16039,28 @@
       <c r="C3" s="2">
         <v>2307236</v>
       </c>
-      <c r="D3" s="3">
-        <v>1536799</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1411132</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1460828</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="J3" t="s">
-        <v>4</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2">
+        <f>Default!B3/B3</f>
+        <v>729.97870496175676</v>
+      </c>
+      <c r="O3" s="2">
+        <f>Default!C3/C3</f>
+        <v>93.713094802612304</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>4</v>
       </c>
@@ -14906,10 +16080,33 @@
         <v>1718534</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4" s="2">
+        <f>Default!B4/B4</f>
+        <v>1037.1890647117559</v>
+      </c>
+      <c r="O4" s="2">
+        <f>Default!C4/C4</f>
+        <v>55.86649400228287</v>
+      </c>
+      <c r="P4" s="2">
+        <f>Default!D4/D4</f>
+        <v>50.09491934034893</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>Default!E4/E4</f>
+        <v>74.025854678399142</v>
+      </c>
+      <c r="R4" s="2">
+        <f>Default!F4/F4</f>
+        <v>125.33942942065737</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>8</v>
       </c>
@@ -14931,8 +16128,31 @@
       <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5" s="2">
+        <f>Default!B5/B5</f>
+        <v>1902.9324228082955</v>
+      </c>
+      <c r="O5" s="2">
+        <f>Default!C5/C5</f>
+        <v>114.19884391084409</v>
+      </c>
+      <c r="P5" s="2">
+        <f>Default!D5/D5</f>
+        <v>147.65469435722287</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>Default!E5/E5</f>
+        <v>406.64165787990146</v>
+      </c>
+      <c r="R5" s="2">
+        <f>Default!F5/F5</f>
+        <v>369.55947824378609</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>16</v>
       </c>
@@ -14951,8 +16171,31 @@
       <c r="F6" s="2">
         <v>1114637</v>
       </c>
+      <c r="M6">
+        <v>16</v>
+      </c>
+      <c r="N6" s="2">
+        <f>Default!B6/B6</f>
+        <v>1711.7667468100478</v>
+      </c>
+      <c r="O6" s="2">
+        <f>Default!C6/C6</f>
+        <v>142.28532974284471</v>
+      </c>
+      <c r="P6" s="2">
+        <f>Default!D6/D6</f>
+        <v>317.67318456041517</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>Default!E6/E6</f>
+        <v>624.37573353535197</v>
+      </c>
+      <c r="R6" s="2">
+        <f>Default!F6/F6</f>
+        <v>601.81039836287505</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>32</v>
       </c>
@@ -14971,8 +16214,31 @@
       <c r="F7" s="2">
         <v>1016521</v>
       </c>
+      <c r="M7">
+        <v>32</v>
+      </c>
+      <c r="N7" s="2">
+        <f>Default!B7/B7</f>
+        <v>2523.5612914317462</v>
+      </c>
+      <c r="O7" s="2">
+        <f>Default!C7/C7</f>
+        <v>147.5387808445542</v>
+      </c>
+      <c r="P7" s="2">
+        <f>Default!D7/D7</f>
+        <v>677.06942639072884</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>Default!E7/E7</f>
+        <v>831.42184947572127</v>
+      </c>
+      <c r="R7" s="2">
+        <f>Default!F7/F7</f>
+        <v>751.4054328439845</v>
+      </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>64</v>
       </c>
@@ -14990,6 +16256,29 @@
       </c>
       <c r="F8" s="2">
         <v>975265</v>
+      </c>
+      <c r="M8">
+        <v>64</v>
+      </c>
+      <c r="N8" s="2">
+        <f>Default!B8/B8</f>
+        <v>4990.8278398124057</v>
+      </c>
+      <c r="O8" s="2">
+        <f>Default!C8/C8</f>
+        <v>166.00241510083382</v>
+      </c>
+      <c r="P8" s="2">
+        <f>Default!D8/D8</f>
+        <v>654.25614224685296</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>Default!E8/E8</f>
+        <v>916.88787317817503</v>
+      </c>
+      <c r="R8" s="2">
+        <f>Default!F8/F8</f>
+        <v>822.87171179115421</v>
       </c>
     </row>
     <row r="73" spans="24:24">
